--- a/doc/zakljucak-charts.xlsx
+++ b/doc/zakljucak-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Marko\Documents\GitHub\OPJ_Projekat\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05E627-C03D-46F9-8A8B-38D778A76387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3D6EC-88DA-476F-8680-F0111EF47D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="106">
   <si>
     <r>
       <t>Lower Case</t>
@@ -758,16 +758,13 @@
   <si>
     <t>(Func) Macro F1-Score најбољи</t>
   </si>
-  <si>
-    <t>0.8993 </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1483,7 +1480,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1500,29 +1497,11 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1536,28 +1515,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1657,16 +1621,7 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1675,7 +1630,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,7 +1639,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1705,13 +1660,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1724,13 +1718,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1741,13 +1735,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1961,7 +1955,7 @@
             <c:numRef>
               <c:f>Sheet1!$AF$8:$AF$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.86780000000000002</c:v>
@@ -1969,10 +1963,10 @@
                 <c:pt idx="1">
                   <c:v>0.86729999999999996</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>0.90129999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>0.90349999999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -2093,7 +2087,7 @@
             <c:numRef>
               <c:f>Sheet1!$AG$8:$AG$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.52139999999999997</c:v>
@@ -2154,7 +2148,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="540000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:bodyPr rot="540000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2213,7 +2207,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2340,6 +2334,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Macro F1-Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2381,17 +2405,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$7:$AF$9</c:f>
+              <c:f>Sheet1!$AF$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>(All) Macro F1-Score најбољи</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8678</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8673</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2408,13 +2426,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$10:$AE$11</c:f>
+              <c:f>Sheet1!$AE$8:$AE$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3) Логистичка регресија </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4) Метода потпорних вектора </c:v>
                 </c:pt>
               </c:strCache>
@@ -2422,14 +2446,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$10:$AF$11</c:f>
+              <c:f>Sheet1!$AF$8:$AF$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.86780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86729999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.90129999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.90349999999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -2437,7 +2467,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4977-4DB5-91B3-E0D24148B75E}"/>
+              <c16:uniqueId val="{00000000-B136-475A-9CA0-040F9A34F6A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2446,17 +2476,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$7:$AG$9</c:f>
+              <c:f>Sheet1!$AG$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>(All) Macro F1-Score најгори</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5214</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7582</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2473,13 +2497,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$10:$AE$11</c:f>
+              <c:f>Sheet1!$AE$8:$AE$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3) Логистичка регресија </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4) Метода потпорних вектора </c:v>
                 </c:pt>
               </c:strCache>
@@ -2487,14 +2517,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$10:$AG$11</c:f>
+              <c:f>Sheet1!$AG$8:$AG$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.52139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.8639</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.84830000000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -2502,7 +2538,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4977-4DB5-91B3-E0D24148B75E}"/>
+              <c16:uniqueId val="{00000001-B136-475A-9CA0-040F9A34F6A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2511,17 +2547,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AH$7:$AH$9</c:f>
+              <c:f>Sheet1!$AH$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>(Func) Macro F1-Score најбољи</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8993 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8625 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2538,13 +2568,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$10:$AE$11</c:f>
+              <c:f>Sheet1!$AE$8:$AE$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3) Логистичка регресија </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4) Метода потпорних вектора </c:v>
                 </c:pt>
               </c:strCache>
@@ -2552,14 +2588,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AH$10:$AH$11</c:f>
+              <c:f>Sheet1!$AH$8:$AH$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.89929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.92600000000000005</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.91400000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -2567,7 +2609,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4977-4DB5-91B3-E0D24148B75E}"/>
+              <c16:uniqueId val="{00000002-B136-475A-9CA0-040F9A34F6A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2576,17 +2618,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AI$7:$AI$9</c:f>
+              <c:f>Sheet1!$AI$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>(Func) Macro F1-Score најгори</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6611 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2603,13 +2639,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$10:$AE$11</c:f>
+              <c:f>Sheet1!$AE$8:$AE$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3) Логистичка регресија </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4) Метода потпорних вектора </c:v>
                 </c:pt>
               </c:strCache>
@@ -2617,14 +2659,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$10:$AI$11</c:f>
+              <c:f>Sheet1!$AI$8:$AI$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.86580000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.87170000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -2632,7 +2680,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4977-4DB5-91B3-E0D24148B75E}"/>
+              <c16:uniqueId val="{00000003-B136-475A-9CA0-040F9A34F6A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2646,11 +2694,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="639287904"/>
-        <c:axId val="639288560"/>
+        <c:axId val="585205976"/>
+        <c:axId val="585202696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="639287904"/>
+        <c:axId val="585205976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,7 +2722,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="1080000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2693,7 +2741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639288560"/>
+        <c:crossAx val="585202696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2701,7 +2749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="639288560"/>
+        <c:axId val="585202696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,7 +2769,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2752,7 +2800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639287904"/>
+        <c:crossAx val="585205976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4032,23 +4080,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>247651</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B4825C-D1AD-4262-A0E6-F5A41DE4FBE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91C81F0-C98F-4C35-A74B-4CCF8DAE35E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4070,10 +4118,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E7BD43A-910C-4A16-88D0-4334F1E379AB}" name="Table1" displayName="Table1" ref="AE7:AI15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E7BD43A-910C-4A16-88D0-4334F1E379AB}" name="Table1" displayName="Table1" ref="AE7:AI15" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="AE7:AI15" xr:uid="{C059AA56-6E13-48C7-B3C4-E162636B05A4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3331CE26-AD44-4767-9EF8-1F6087A522FF}" name="Тип" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3331CE26-AD44-4767-9EF8-1F6087A522FF}" name="Тип" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6333EB44-D546-427A-937A-216CEEC464FA}" name="(All) Macro F1-Score најбољи"/>
     <tableColumn id="3" xr3:uid="{391674A8-6572-4A61-83AB-A35BD7A80EBE}" name="(All) Macro F1-Score најгори"/>
     <tableColumn id="4" xr3:uid="{23289B01-812E-4CCB-BAFF-3ED66A83195B}" name="(Func) Macro F1-Score најбољи"/>
@@ -4348,8 +4396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView tabSelected="1" topLeftCell="S13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF53" sqref="AF53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4363,210 +4411,210 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
     </row>
     <row r="6" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="AE6" s="69" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="AE6" s="55" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="AE7" s="74" t="s">
+      <c r="B7" s="67"/>
+      <c r="AE7" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="AF7" s="75" t="s">
+      <c r="AF7" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="AH7" s="75" t="s">
+      <c r="AH7" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AI7" s="76" t="s">
+      <c r="AI7" s="62" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="63" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="63" t="s">
         <v>6</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="59" t="s">
+      <c r="T8" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="V8" s="21"/>
+      <c r="V8" s="12"/>
       <c r="W8" s="2"/>
-      <c r="AE8" s="73" t="s">
+      <c r="AE8" s="59" t="s">
         <v>32</v>
       </c>
       <c r="AF8" s="77">
         <v>0.86780000000000002</v>
       </c>
-      <c r="AG8" s="79">
+      <c r="AG8" s="78">
         <v>0.52139999999999997</v>
       </c>
-      <c r="AH8" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI8" s="79">
+      <c r="AH8" s="77">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="AI8" s="78">
         <v>0.5333</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="17" t="s">
+      <c r="I9" s="74"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="60"/>
-      <c r="W9" s="65"/>
-      <c r="AE9" s="73" t="s">
+      <c r="T9" s="76"/>
+      <c r="W9" s="51"/>
+      <c r="AE9" s="59" t="s">
         <v>35</v>
       </c>
       <c r="AF9" s="77">
         <v>0.86729999999999996</v>
       </c>
-      <c r="AG9" s="79">
+      <c r="AG9" s="78">
         <v>0.75819999999999999</v>
       </c>
-      <c r="AH9" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI9" s="79" t="s">
-        <v>99</v>
+      <c r="AH9" s="77">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="AI9" s="78">
+        <v>0.66110000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4591,359 +4639,359 @@
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="61" t="s">
+      <c r="T10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="W10" s="16"/>
-      <c r="AE10" s="73" t="s">
+      <c r="W10" s="10"/>
+      <c r="AE10" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="AF10" s="78">
+      <c r="AF10" s="77">
         <v>0.90129999999999999</v>
       </c>
-      <c r="AG10" s="79">
+      <c r="AG10" s="78">
         <v>0.8639</v>
       </c>
-      <c r="AH10" s="78">
+      <c r="AH10" s="77">
         <v>0.92600000000000005</v>
       </c>
-      <c r="AI10" s="79">
+      <c r="AI10" s="78">
         <v>0.86580000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE11" s="73" t="s">
+      <c r="AE11" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="AF11" s="78">
+      <c r="AF11" s="77">
         <v>0.90349999999999997</v>
       </c>
-      <c r="AG11" s="79">
+      <c r="AG11" s="78">
         <v>0.84830000000000005</v>
       </c>
-      <c r="AH11" s="78">
+      <c r="AH11" s="77">
         <v>0.91400000000000003</v>
       </c>
-      <c r="AI11" s="79">
+      <c r="AI11" s="78">
         <v>0.87170000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
     </row>
     <row r="13" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="63" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="63" t="s">
         <v>6</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="59" t="s">
+      <c r="T13" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
     </row>
     <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="17" t="s">
+      <c r="I14" s="74"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="60"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
+      <c r="T14" s="76"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
     </row>
     <row r="15" spans="1:35" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="15" t="s">
+      <c r="R15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="S15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="61" t="s">
+      <c r="T15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
     </row>
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="AE17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="AE17" s="56"/>
     </row>
     <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
     </row>
     <row r="19" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="67"/>
     </row>
     <row r="20" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="63" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="63" t="s">
         <v>6</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T20" s="59" t="s">
+      <c r="T20" s="73" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="I21" s="74"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
       <c r="S21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="62"/>
+      <c r="T21" s="74"/>
     </row>
     <row r="22" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4970,1783 +5018,1783 @@
       <c r="H22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="15" t="s">
+      <c r="R22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="S22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T22" s="61" t="s">
+      <c r="T22" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="70"/>
     </row>
     <row r="25" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="63" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="63" t="s">
         <v>6</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="59" t="s">
+      <c r="T25" s="73" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="62"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="I26" s="74"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
       <c r="S26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="62"/>
+      <c r="T26" s="74"/>
     </row>
     <row r="27" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="O27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="R27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T27" s="61" t="s">
+      <c r="T27" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
     </row>
     <row r="31" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="67"/>
     </row>
     <row r="38" spans="1:27" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="28" t="s">
+      <c r="M38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="28" t="s">
+      <c r="N38" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="28" t="s">
+      <c r="O38" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="P38" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="28" t="s">
+      <c r="Q38" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R38" s="28" t="s">
+      <c r="R38" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="S38" s="29" t="s">
+      <c r="S38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="T38" s="32" t="s">
+      <c r="T38" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="V38" s="21"/>
+      <c r="V38" s="12"/>
       <c r="W38" s="2"/>
-      <c r="Z38" s="21"/>
+      <c r="Z38" s="12"/>
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="36" t="b">
+      <c r="F39" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="36" t="b">
+      <c r="G39" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L39" s="39" t="s">
+      <c r="L39" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="40" t="s">
+      <c r="M39" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="40" t="s">
+      <c r="N39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O39" s="40" t="s">
+      <c r="O39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="40" t="s">
+      <c r="P39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q39" s="64" t="b">
+      <c r="Q39" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="R39" s="64" t="b">
+      <c r="R39" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="S39" s="41" t="s">
+      <c r="S39" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="T39" s="34" t="s">
+      <c r="T39" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="V39" s="22"/>
-      <c r="W39" s="68"/>
-      <c r="AA39" s="65"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="54"/>
+      <c r="AA39" s="51"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="42"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="41"/>
-      <c r="AA40" s="16"/>
+      <c r="G40" s="31"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="30"/>
+      <c r="AA40" s="10"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="G41" s="43"/>
+      <c r="B41" s="70"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="1:27" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="L42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="28" t="s">
+      <c r="M42" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N42" s="28" t="s">
+      <c r="N42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O42" s="28" t="s">
+      <c r="O42" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="28" t="s">
+      <c r="P42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Q42" s="28" t="s">
+      <c r="Q42" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R42" s="28" t="s">
+      <c r="R42" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="S42" s="29" t="s">
+      <c r="S42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="T42" s="32" t="s">
+      <c r="T42" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="36" t="b">
+      <c r="F43" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G43" s="36" t="b">
+      <c r="G43" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="40" t="s">
+      <c r="M43" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="40" t="s">
+      <c r="N43" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O43" s="40" t="s">
+      <c r="O43" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="P43" s="40" t="s">
+      <c r="P43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q43" s="64" t="b">
+      <c r="Q43" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="R43" s="64" t="b">
+      <c r="R43" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="S43" s="41" t="s">
+      <c r="S43" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="T43" s="34" t="s">
+      <c r="T43" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="67"/>
     </row>
     <row r="49" spans="1:20" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="L49" s="27" t="s">
+      <c r="L49" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M49" s="28" t="s">
+      <c r="M49" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N49" s="28" t="s">
+      <c r="N49" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O49" s="28" t="s">
+      <c r="O49" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P49" s="28" t="s">
+      <c r="P49" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="28" t="s">
+      <c r="Q49" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R49" s="28" t="s">
+      <c r="R49" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="S49" s="29" t="s">
+      <c r="S49" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="T49" s="32" t="s">
+      <c r="T49" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="36" t="b">
+      <c r="F50" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G50" s="36" t="b">
+      <c r="G50" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="39" t="s">
+      <c r="L50" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="40" t="s">
+      <c r="M50" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N50" s="40" t="s">
+      <c r="N50" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O50" s="40" t="s">
+      <c r="O50" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P50" s="40" t="s">
+      <c r="P50" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q50" s="64" t="b">
+      <c r="Q50" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="R50" s="64" t="b">
+      <c r="R50" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="S50" s="41" t="s">
+      <c r="S50" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="T50" s="34" t="s">
+      <c r="T50" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="70"/>
     </row>
     <row r="53" spans="1:20" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I53" s="32" t="s">
+      <c r="I53" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="L53" s="27" t="s">
+      <c r="L53" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M53" s="28" t="s">
+      <c r="M53" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N53" s="28" t="s">
+      <c r="N53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="28" t="s">
+      <c r="O53" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P53" s="28" t="s">
+      <c r="P53" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="28" t="s">
+      <c r="Q53" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="R53" s="28" t="s">
+      <c r="R53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="S53" s="29" t="s">
+      <c r="S53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="T53" s="32" t="s">
+      <c r="T53" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="36" t="b">
+      <c r="F54" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="36" t="b">
+      <c r="G54" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="26">
         <v>0.69020000000000004</v>
       </c>
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M54" s="40" t="s">
+      <c r="M54" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N54" s="40" t="s">
+      <c r="N54" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O54" s="40" t="s">
+      <c r="O54" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="P54" s="40" t="s">
+      <c r="P54" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q54" s="64" t="b">
+      <c r="Q54" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="R54" s="64" t="b">
+      <c r="R54" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="S54" s="41" t="s">
+      <c r="S54" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="T54" s="34" t="s">
+      <c r="T54" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="72"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="72"/>
+      <c r="S61" s="72"/>
+      <c r="T61" s="72"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="12"/>
+      <c r="B66" s="67"/>
     </row>
     <row r="67" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="46" t="s">
+      <c r="F67" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="46" t="s">
+      <c r="G67" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="47" t="s">
+      <c r="H67" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I67" s="52" t="s">
+      <c r="I67" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="L67" s="45" t="s">
+      <c r="L67" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M67" s="46" t="s">
+      <c r="M67" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="46" t="s">
+      <c r="N67" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O67" s="46" t="s">
+      <c r="O67" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P67" s="46" t="s">
+      <c r="P67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q67" s="46" t="s">
+      <c r="Q67" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="R67" s="46" t="s">
+      <c r="R67" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="S67" s="47" t="s">
+      <c r="S67" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="T67" s="52" t="s">
+      <c r="T67" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="V67" s="66"/>
-      <c r="W67" s="47"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="36"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F68" s="49" t="s">
+      <c r="F68" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="I68" s="53" t="s">
+      <c r="I68" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="L68" s="48" t="s">
+      <c r="L68" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="49" t="s">
+      <c r="M68" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N68" s="49" t="s">
+      <c r="N68" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O68" s="49" t="s">
+      <c r="O68" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P68" s="49" t="s">
+      <c r="P68" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="Q68" s="49" t="s">
+      <c r="Q68" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R68" s="49" t="s">
+      <c r="R68" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S68" s="50" t="s">
+      <c r="S68" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="T68" s="53" t="s">
+      <c r="T68" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="V68" s="21"/>
-      <c r="W68" s="50"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="39"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V69" s="21"/>
-      <c r="W69" s="50"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="39"/>
     </row>
     <row r="70" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="70"/>
     </row>
     <row r="71" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F71" s="46" t="s">
+      <c r="F71" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="46" t="s">
+      <c r="G71" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="L71" s="45" t="s">
+      <c r="L71" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M71" s="46" t="s">
+      <c r="M71" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="N71" s="46" t="s">
+      <c r="N71" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O71" s="46" t="s">
+      <c r="O71" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P71" s="46" t="s">
+      <c r="P71" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q71" s="46" t="s">
+      <c r="Q71" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="R71" s="46" t="s">
+      <c r="R71" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="S71" s="51" t="s">
+      <c r="S71" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E72" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F72" s="49" t="s">
+      <c r="F72" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="49" t="s">
+      <c r="G72" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="50" t="s">
+      <c r="H72" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="L72" s="48" t="s">
+      <c r="L72" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="49" t="s">
+      <c r="M72" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N72" s="49" t="s">
+      <c r="N72" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O72" s="49" t="s">
+      <c r="O72" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P72" s="49" t="s">
+      <c r="P72" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q72" s="49" t="s">
+      <c r="Q72" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="R72" s="49" t="s">
+      <c r="R72" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S72" s="50" t="s">
+      <c r="S72" s="39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="20"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
     </row>
     <row r="78" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="67"/>
     </row>
     <row r="79" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="46" t="s">
+      <c r="G79" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H79" s="47" t="s">
+      <c r="H79" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I79" s="52" t="s">
+      <c r="I79" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="L79" s="45" t="s">
+      <c r="L79" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M79" s="46" t="s">
+      <c r="M79" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="N79" s="46" t="s">
+      <c r="N79" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O79" s="46" t="s">
+      <c r="O79" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P79" s="46" t="s">
+      <c r="P79" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q79" s="46" t="s">
+      <c r="Q79" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="R79" s="46" t="s">
+      <c r="R79" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="S79" s="47" t="s">
+      <c r="S79" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="T79" s="52" t="s">
+      <c r="T79" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="49" t="s">
+      <c r="E80" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="F80" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="50" t="s">
+      <c r="H80" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I80" s="53" t="s">
+      <c r="I80" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L80" s="48" t="s">
+      <c r="L80" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="M80" s="49" t="s">
+      <c r="M80" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N80" s="49" t="s">
+      <c r="N80" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O80" s="49" t="s">
+      <c r="O80" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P80" s="49" t="s">
+      <c r="P80" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="Q80" s="49" t="s">
+      <c r="Q80" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R80" s="49" t="s">
+      <c r="R80" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S80" s="50" t="s">
+      <c r="S80" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="T80" s="53" t="s">
+      <c r="T80" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="13"/>
+      <c r="B82" s="70"/>
     </row>
     <row r="83" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="46" t="s">
+      <c r="C83" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="46" t="s">
+      <c r="D83" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="46" t="s">
+      <c r="E83" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F83" s="46" t="s">
+      <c r="F83" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="46" t="s">
+      <c r="G83" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="51" t="s">
+      <c r="H83" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="L83" s="45" t="s">
+      <c r="L83" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M83" s="46" t="s">
+      <c r="M83" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="N83" s="46" t="s">
+      <c r="N83" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O83" s="46" t="s">
+      <c r="O83" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P83" s="46" t="s">
+      <c r="P83" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q83" s="46" t="s">
+      <c r="Q83" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="R83" s="46" t="s">
+      <c r="R83" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="S83" s="51" t="s">
+      <c r="S83" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="49" t="s">
+      <c r="E84" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="49" t="s">
+      <c r="F84" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="49" t="s">
+      <c r="G84" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="50" t="s">
+      <c r="H84" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L84" s="48" t="s">
+      <c r="L84" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="M84" s="49" t="s">
+      <c r="M84" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N84" s="49" t="s">
+      <c r="N84" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O84" s="49" t="s">
+      <c r="O84" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P84" s="49" t="s">
+      <c r="P84" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="Q84" s="49" t="s">
+      <c r="Q84" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R84" s="49" t="s">
+      <c r="R84" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S84" s="50" t="s">
+      <c r="S84" s="39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="54"/>
-      <c r="S85" s="54"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
     </row>
     <row r="86" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
-      <c r="T87" s="24"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="14"/>
     </row>
     <row r="88" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="71"/>
+      <c r="L89" s="71"/>
+      <c r="M89" s="71"/>
+      <c r="N89" s="71"/>
+      <c r="O89" s="71"/>
+      <c r="P89" s="71"/>
+      <c r="Q89" s="71"/>
+      <c r="R89" s="71"/>
+      <c r="S89" s="71"/>
+      <c r="T89" s="71"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="20"/>
-      <c r="T90" s="20"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="71"/>
+      <c r="L90" s="71"/>
+      <c r="M90" s="71"/>
+      <c r="N90" s="71"/>
+      <c r="O90" s="71"/>
+      <c r="P90" s="71"/>
+      <c r="Q90" s="71"/>
+      <c r="R90" s="71"/>
+      <c r="S90" s="71"/>
+      <c r="T90" s="71"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="20"/>
-      <c r="S92" s="20"/>
-      <c r="T92" s="20"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="71"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="71"/>
+      <c r="O92" s="71"/>
+      <c r="P92" s="71"/>
+      <c r="Q92" s="71"/>
+      <c r="R92" s="71"/>
+      <c r="S92" s="71"/>
+      <c r="T92" s="71"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="20"/>
-      <c r="T93" s="20"/>
+      <c r="A93" s="71"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="71"/>
+      <c r="O93" s="71"/>
+      <c r="P93" s="71"/>
+      <c r="Q93" s="71"/>
+      <c r="R93" s="71"/>
+      <c r="S93" s="71"/>
+      <c r="T93" s="71"/>
     </row>
     <row r="95" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="12"/>
+      <c r="B95" s="67"/>
     </row>
     <row r="96" spans="1:23" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="63" t="s">
         <v>6</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L96" s="6" t="s">
+      <c r="L96" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M96" s="8" t="s">
+      <c r="M96" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N96" s="8" t="s">
+      <c r="N96" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O96" s="8" t="s">
+      <c r="O96" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P96" s="8" t="s">
+      <c r="P96" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q96" s="8" t="s">
+      <c r="Q96" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R96" s="8" t="s">
+      <c r="R96" s="63" t="s">
         <v>6</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V96" s="21"/>
-      <c r="W96" s="67"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="53"/>
     </row>
     <row r="97" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L97" s="18"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="17" t="s">
+      <c r="L97" s="66"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="64"/>
+      <c r="O97" s="64"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="64"/>
+      <c r="R97" s="64"/>
+      <c r="S97" s="11" t="s">
         <v>8</v>
       </c>
       <c r="W97" s="5"/>
     </row>
     <row r="98" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="56" t="s">
+      <c r="C98" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="56" t="s">
+      <c r="D98" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="56" t="s">
+      <c r="E98" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F98" s="56" t="s">
+      <c r="F98" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="56" t="s">
+      <c r="G98" s="45" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L98" s="57" t="s">
+      <c r="L98" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M98" s="58" t="s">
+      <c r="M98" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="N98" s="58" t="s">
+      <c r="N98" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O98" s="58" t="s">
+      <c r="O98" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="P98" s="58" t="s">
+      <c r="P98" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="Q98" s="58" t="s">
+      <c r="Q98" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R98" s="58" t="s">
+      <c r="R98" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S98" s="16" t="s">
+      <c r="S98" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="W98" s="16"/>
+      <c r="W98" s="10"/>
     </row>
     <row r="100" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B100" s="13"/>
+      <c r="B100" s="70"/>
     </row>
     <row r="101" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="63" t="s">
         <v>6</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L101" s="6" t="s">
+      <c r="L101" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M101" s="8" t="s">
+      <c r="M101" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N101" s="8" t="s">
+      <c r="N101" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O101" s="8" t="s">
+      <c r="O101" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="8" t="s">
+      <c r="P101" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="8" t="s">
+      <c r="Q101" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R101" s="8" t="s">
+      <c r="R101" s="63" t="s">
         <v>6</v>
       </c>
       <c r="S101" s="1" t="s">
@@ -6754,173 +6802,173 @@
       </c>
     </row>
     <row r="102" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
       <c r="H102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="18"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="19"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
-      <c r="S102" s="17" t="s">
+      <c r="L102" s="66"/>
+      <c r="M102" s="64"/>
+      <c r="N102" s="64"/>
+      <c r="O102" s="64"/>
+      <c r="P102" s="64"/>
+      <c r="Q102" s="64"/>
+      <c r="R102" s="64"/>
+      <c r="S102" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="55" t="s">
+      <c r="A103" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="56" t="s">
+      <c r="D103" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="E103" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F103" s="56" t="s">
+      <c r="F103" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="56" t="s">
+      <c r="G103" s="45" t="s">
         <v>16</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L103" s="57" t="s">
+      <c r="L103" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M103" s="58" t="s">
+      <c r="M103" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="N103" s="58" t="s">
+      <c r="N103" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O103" s="58" t="s">
+      <c r="O103" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="P103" s="58" t="s">
+      <c r="P103" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="Q103" s="58" t="s">
+      <c r="Q103" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R103" s="58" t="s">
+      <c r="R103" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S103" s="16" t="s">
+      <c r="S103" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="20"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="20"/>
-      <c r="S106" s="20"/>
-      <c r="T106" s="20"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
+      <c r="Q106" s="71"/>
+      <c r="R106" s="71"/>
+      <c r="S106" s="71"/>
+      <c r="T106" s="71"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="20"/>
-      <c r="N107" s="20"/>
-      <c r="O107" s="20"/>
-      <c r="P107" s="20"/>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="20"/>
-      <c r="S107" s="20"/>
-      <c r="T107" s="20"/>
+      <c r="A107" s="71"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="71"/>
+      <c r="Q107" s="71"/>
+      <c r="R107" s="71"/>
+      <c r="S107" s="71"/>
+      <c r="T107" s="71"/>
     </row>
     <row r="109" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="12"/>
+      <c r="B109" s="67"/>
     </row>
     <row r="110" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="63" t="s">
         <v>6</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L110" s="6" t="s">
+      <c r="L110" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M110" s="8" t="s">
+      <c r="M110" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N110" s="8" t="s">
+      <c r="N110" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O110" s="8" t="s">
+      <c r="O110" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P110" s="8" t="s">
+      <c r="P110" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q110" s="8" t="s">
+      <c r="Q110" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R110" s="8" t="s">
+      <c r="R110" s="63" t="s">
         <v>6</v>
       </c>
       <c r="S110" s="1" t="s">
@@ -6928,127 +6976,127 @@
       </c>
     </row>
     <row r="111" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="A111" s="69"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L111" s="18"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="17" t="s">
+      <c r="L111" s="66"/>
+      <c r="M111" s="64"/>
+      <c r="N111" s="64"/>
+      <c r="O111" s="64"/>
+      <c r="P111" s="64"/>
+      <c r="Q111" s="64"/>
+      <c r="R111" s="64"/>
+      <c r="S111" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="55" t="s">
+      <c r="A112" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B112" s="56" t="s">
+      <c r="B112" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="56" t="s">
+      <c r="C112" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="56" t="s">
+      <c r="D112" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E112" s="56" t="s">
+      <c r="E112" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F112" s="56" t="s">
+      <c r="F112" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="56" t="s">
+      <c r="G112" s="45" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L112" s="57" t="s">
+      <c r="L112" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M112" s="58" t="s">
+      <c r="M112" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="N112" s="58" t="s">
+      <c r="N112" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O112" s="58" t="s">
+      <c r="O112" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P112" s="58" t="s">
+      <c r="P112" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q112" s="58" t="s">
+      <c r="Q112" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R112" s="58" t="s">
+      <c r="R112" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S112" s="16" t="s">
+      <c r="S112" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B114" s="13"/>
+      <c r="B114" s="70"/>
     </row>
     <row r="115" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="63" t="s">
         <v>6</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L115" s="6" t="s">
+      <c r="L115" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="M115" s="8" t="s">
+      <c r="M115" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="N115" s="8" t="s">
+      <c r="N115" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O115" s="8" t="s">
+      <c r="O115" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P115" s="8" t="s">
+      <c r="P115" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Q115" s="8" t="s">
+      <c r="Q115" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R115" s="8" t="s">
+      <c r="R115" s="63" t="s">
         <v>6</v>
       </c>
       <c r="S115" s="1" t="s">
@@ -7056,88 +7104,197 @@
       </c>
     </row>
     <row r="116" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="A116" s="69"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
       <c r="H116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L116" s="18"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="19"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="19"/>
-      <c r="R116" s="19"/>
-      <c r="S116" s="17" t="s">
+      <c r="L116" s="66"/>
+      <c r="M116" s="64"/>
+      <c r="N116" s="64"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="64"/>
+      <c r="Q116" s="64"/>
+      <c r="R116" s="64"/>
+      <c r="S116" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="55" t="s">
+      <c r="A117" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="B117" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="56" t="s">
+      <c r="C117" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D117" s="56" t="s">
+      <c r="D117" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="56" t="s">
+      <c r="E117" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F117" s="56" t="s">
+      <c r="F117" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="56" t="s">
+      <c r="G117" s="45" t="s">
         <v>16</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L117" s="57" t="s">
+      <c r="L117" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M117" s="58" t="s">
+      <c r="M117" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="58" t="s">
+      <c r="N117" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O117" s="58" t="s">
+      <c r="O117" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P117" s="58" t="s">
+      <c r="P117" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="Q117" s="58" t="s">
+      <c r="Q117" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R117" s="58" t="s">
+      <c r="R117" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S117" s="16" t="s">
+      <c r="S117" s="10" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="Q115:Q116"/>
-    <mergeCell ref="R115:R116"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="N110:N111"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="P110:P111"/>
-    <mergeCell ref="Q110:Q111"/>
-    <mergeCell ref="R110:R111"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:T18"/>
+    <mergeCell ref="A5:T6"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="A33:T34"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A45:T46"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A75:T76"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A89:T90"/>
+    <mergeCell ref="A92:T93"/>
+    <mergeCell ref="A35:T36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A60:T61"/>
+    <mergeCell ref="A63:T64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="R96:R97"/>
+    <mergeCell ref="A106:T107"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="G96:G97"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="L115:L116"/>
     <mergeCell ref="M115:M116"/>
@@ -7159,124 +7316,15 @@
     <mergeCell ref="D110:D111"/>
     <mergeCell ref="E110:E111"/>
     <mergeCell ref="F110:F111"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="P96:P97"/>
-    <mergeCell ref="Q96:Q97"/>
-    <mergeCell ref="R96:R97"/>
-    <mergeCell ref="A106:T107"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="P101:P102"/>
-    <mergeCell ref="Q101:Q102"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A75:T76"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A89:T90"/>
-    <mergeCell ref="A92:T93"/>
-    <mergeCell ref="A35:T36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A60:T61"/>
-    <mergeCell ref="A63:T64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="A33:T34"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A45:T46"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:T18"/>
-    <mergeCell ref="A5:T6"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="Q115:Q116"/>
+    <mergeCell ref="R115:R116"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="N110:N111"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="P110:P111"/>
+    <mergeCell ref="Q110:Q111"/>
+    <mergeCell ref="R110:R111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/zakljucak-charts.xlsx
+++ b/doc/zakljucak-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Marko\Documents\GitHub\OPJ_Projekat\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3D6EC-88DA-476F-8680-F0111EF47D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE4A10-8246-4E2A-A28E-95A2A3C4F40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2340,12 +2340,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2353,14 +2350,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Macro F1-Score</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2377,12 +2369,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2405,48 +2394,125 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$7</c:f>
+              <c:f>Sheet1!$AE$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(All) Macro F1-Score најбољи</c:v>
+                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$8:$AE$11</c:f>
+              <c:f>Sheet1!$AF$7:$AI$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                  <c:v>(All) Macro F1-Score најбољи</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                  <c:v>(All) Macro F1-Score најгори</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3) Логистичка регресија </c:v>
+                  <c:v>(Func) Macro F1-Score најбољи</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4) Метода потпорних вектора </c:v>
+                  <c:v>(Func) Macro F1-Score најгори</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$8:$AF$11</c:f>
+              <c:f>Sheet1!$AF$8:$AI$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2454,13 +2520,13 @@
                   <c:v>0.86780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86729999999999996</c:v>
+                  <c:v>0.52139999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90129999999999999</c:v>
+                  <c:v>0.89929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90349999999999997</c:v>
+                  <c:v>0.5333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,62 +2542,139 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$7</c:f>
+              <c:f>Sheet1!$AE$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(All) Macro F1-Score најгори</c:v>
+                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$8:$AE$11</c:f>
+              <c:f>Sheet1!$AF$7:$AI$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                  <c:v>(All) Macro F1-Score најбољи</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                  <c:v>(All) Macro F1-Score најгори</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3) Логистичка регресија </c:v>
+                  <c:v>(Func) Macro F1-Score најбољи</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4) Метода потпорних вектора </c:v>
+                  <c:v>(Func) Macro F1-Score најгори</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$8:$AG$11</c:f>
+              <c:f>Sheet1!$AF$9:$AI$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.52139999999999997</c:v>
+                  <c:v>0.86729999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.75819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8639</c:v>
+                  <c:v>0.86250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84830000000000005</c:v>
+                  <c:v>0.66110000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,62 +2690,139 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AH$7</c:f>
+              <c:f>Sheet1!$AE$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(Func) Macro F1-Score најбољи</c:v>
+                  <c:v>3) Логистичка регресија </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$8:$AE$11</c:f>
+              <c:f>Sheet1!$AF$7:$AI$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                  <c:v>(All) Macro F1-Score најбољи</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                  <c:v>(All) Macro F1-Score најгори</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3) Логистичка регресија </c:v>
+                  <c:v>(Func) Macro F1-Score најбољи</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4) Метода потпорних вектора </c:v>
+                  <c:v>(Func) Macro F1-Score најгори</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AH$8:$AH$11</c:f>
+              <c:f>Sheet1!$AF$10:$AI$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.89929999999999999</c:v>
+                  <c:v>0.90129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86250000000000004</c:v>
+                  <c:v>0.8639</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.92600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91400000000000003</c:v>
+                  <c:v>0.86580000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2618,59 +2838,136 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AI$7</c:f>
+              <c:f>Sheet1!$AE$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(Func) Macro F1-Score најгори</c:v>
+                  <c:v>4) Метода потпорних вектора </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AE$8:$AE$11</c:f>
+              <c:f>Sheet1!$AF$7:$AI$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                  <c:v>(All) Macro F1-Score најбољи</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                  <c:v>(All) Macro F1-Score најгори</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3) Логистичка регресија </c:v>
+                  <c:v>(Func) Macro F1-Score најбољи</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4) Метода потпорних вектора </c:v>
+                  <c:v>(Func) Macro F1-Score најгори</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$8:$AI$11</c:f>
+              <c:f>Sheet1!$AF$11:$AI$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5333</c:v>
+                  <c:v>0.90349999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66110000000000002</c:v>
+                  <c:v>0.84830000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86580000000000001</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.87170000000000003</c:v>
@@ -2685,15 +2982,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="585205976"/>
         <c:axId val="585202696"/>
       </c:barChart>
@@ -2712,7 +3010,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2722,16 +3020,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="1080000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="1140000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2759,7 +3054,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2787,10 +3082,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2829,10 +3121,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2860,7 +3149,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3538,33 +3827,27 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3579,7 +3862,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3587,7 +3870,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3595,17 +3878,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -3614,9 +3894,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -3639,35 +3918,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3676,33 +3955,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3718,21 +3996,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3766,17 +4039,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3785,14 +4058,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3804,26 +4077,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3837,17 +4104,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3856,17 +4122,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3875,17 +4141,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3894,27 +4159,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3922,11 +4184,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3934,17 +4204,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3953,12 +4223,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3967,14 +4234,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3983,10 +4250,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -3995,7 +4259,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4016,10 +4280,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -4028,14 +4289,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4081,15 +4336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4396,7 +4651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AF53" sqref="AF53"/>
     </sheetView>
   </sheetViews>

--- a/doc/zakljucak-charts.xlsx
+++ b/doc/zakljucak-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Marko\Documents\GitHub\OPJ_Projekat\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE4A10-8246-4E2A-A28E-95A2A3C4F40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9679C807-9031-42CA-BC18-F685CDD63D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="110">
   <si>
     <r>
       <t>Lower Case</t>
@@ -757,6 +757,18 @@
   </si>
   <si>
     <t>(Func) Macro F1-Score најбољи</t>
+  </si>
+  <si>
+    <t>(All) Code F1-Score најбољи</t>
+  </si>
+  <si>
+    <t>(All) Code F1-Score најгори</t>
+  </si>
+  <si>
+    <t>(Func) Code F1-Score најбољи</t>
+  </si>
+  <si>
+    <t>(Func) Code F1-Score најгори</t>
   </si>
 </sst>
 </file>
@@ -927,7 +939,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,8 +996,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1472,6 +1496,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1480,7 +1539,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1708,6 +1767,27 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1758,568 +1838,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Macro</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> F1-Score</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.38305560040922171"/>
-          <c:y val="1.6608957137800782E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AF$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(All) Macro F1-Score најбољи</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$AE$8:$AE$11</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3) Логистичка регресија </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4) Метода потпорних вектора </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AF$8:$AF$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.86780000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86729999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90349999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDA2-45A6-95EB-CA3A62AB303D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AG$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(All) Macro F1-Score најгори</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$AE$8:$AE$11</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3) Логистичка регресија </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4) Метода потпорних вектора </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AG$8:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.52139999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8639</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84830000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BDA2-45A6-95EB-CA3A62AB303D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="632511152"/>
-        <c:axId val="632503608"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="632511152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="540000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="632503608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="632503608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632511152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3176,6 +2694,877 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Code F1-Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44756580549235275"/>
+          <c:y val="8.5653104925053538E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6421874093846631E-2"/>
+          <c:y val="5.643112062812277E-2"/>
+          <c:w val="0.88378050627021465"/>
+          <c:h val="0.75787789374293957"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1) Мултиномијални наивни бајесовски класификатор </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$20:$AI$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>(All) Code F1-Score најбољи</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(All) Code F1-Score најгори</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(Func) Code F1-Score најбољи</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(Func) Code F1-Score најгори</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$21:$AI$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.74070999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79809523800000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B136-475A-9CA0-040F9A34F6A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2) Мултиваријациони Бернулијев наивни бајесовски класификатор </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$20:$AI$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>(All) Code F1-Score најбољи</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(All) Code F1-Score најгори</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(Func) Code F1-Score најбољи</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(Func) Code F1-Score најгори</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$22:$AI$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.67379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B136-475A-9CA0-040F9A34F6A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3) Логистичка регресија </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$20:$AI$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>(All) Code F1-Score најбољи</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(All) Code F1-Score најгори</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(Func) Code F1-Score најбољи</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(Func) Code F1-Score најгори</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$23:$AI$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.65285700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85714299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50079399999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B136-475A-9CA0-040F9A34F6A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4) Метода потпорних вектора </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AF$20:$AI$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>(All) Code F1-Score најбољи</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(All) Code F1-Score најгори</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(Func) Code F1-Score најбољи</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(Func) Code F1-Score најгори</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$24:$AI$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.72214285700000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41023809500000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.752222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52714285699999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B136-475A-9CA0-040F9A34F6A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="585205976"/>
+        <c:axId val="585202696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="585205976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="1140000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585202696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585202696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585205976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3257,16 +3646,13 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
@@ -3275,56 +3661,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3337,96 +3704,70 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3434,19 +3775,20 @@
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -3454,10 +3796,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3473,17 +3815,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3500,13 +3839,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3519,14 +3858,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -3538,14 +3877,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3557,7 +3896,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3565,28 +3904,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3596,28 +3923,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3626,14 +3941,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -3645,14 +3960,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3663,19 +3978,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -3683,7 +3987,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3691,7 +3995,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3699,17 +4003,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3722,17 +4023,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3741,12 +4042,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3755,13 +4053,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3770,10 +4069,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -3782,7 +4078,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3790,9 +4086,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3803,16 +4099,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3820,7 +4108,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4299,23 +4587,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>300036</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>485773</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5632F544-953F-4CE6-B90A-1A03F28D1F7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91C81F0-C98F-4C35-A74B-4CCF8DAE35E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4335,23 +4623,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>814387</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91C81F0-C98F-4C35-A74B-4CCF8DAE35E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A48492-1271-427D-ACE4-1C5A3DD02297}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4657,374 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2505075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06958B5D-1617-4F8A-8B9A-834C935A2433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21640800" y="7010400"/>
+          <a:ext cx="1905000" cy="6981825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DED2C2-ADDD-4072-B9D6-621BA9C18DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25574625" y="7067550"/>
+          <a:ext cx="1905000" cy="6934200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF0B55D-429F-4E6C-A668-327287F018F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30794325" y="9124951"/>
+          <a:ext cx="1905000" cy="4476750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7376</cdr:x>
+      <cdr:y>0.32378</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95253</cdr:x>
+      <cdr:y>0.8167</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DED2C2-ADDD-4072-B9D6-621BA9C18DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6537325" y="2905125"/>
+          <a:ext cx="1905000" cy="4422775"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1">
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4647,12 +5302,264 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF53" sqref="AF53"/>
+    <sheetView tabSelected="1" topLeftCell="P25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5115,7 +6022,7 @@
       <c r="AF15" s="58"/>
       <c r="AG15" s="58"/>
     </row>
-    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>27</v>
       </c>
@@ -5140,7 +6047,7 @@
       <c r="T17" s="71"/>
       <c r="AE17" s="56"/>
     </row>
-    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71"/>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
@@ -5162,13 +6069,13 @@
       <c r="S18" s="71"/>
       <c r="T18" s="71"/>
     </row>
-    <row r="19" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="67"/>
     </row>
-    <row r="20" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
         <v>0</v>
       </c>
@@ -5223,8 +6130,23 @@
       <c r="T20" s="73" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE20" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF20" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG20" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH20" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI20" s="83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -5247,8 +6169,23 @@
         <v>8</v>
       </c>
       <c r="T21" s="74"/>
-    </row>
-    <row r="22" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AE21" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF21" s="84">
+        <v>0.74070999999999998</v>
+      </c>
+      <c r="AG21" s="85">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="84">
+        <v>0.79809523800000004</v>
+      </c>
+      <c r="AI21" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -5303,14 +6240,61 @@
       <c r="T22" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE22" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" s="84">
+        <v>0.67379999999999995</v>
+      </c>
+      <c r="AG22" s="85">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="AH22" s="84">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="AI22" s="85">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE23" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF23" s="84">
+        <v>0.65285700000000002</v>
+      </c>
+      <c r="AG23" s="85">
+        <v>0.52381</v>
+      </c>
+      <c r="AH23" s="84">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="AI23" s="85">
+        <v>0.50079399999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="70"/>
-    </row>
-    <row r="25" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF24" s="84">
+        <v>0.72214285700000003</v>
+      </c>
+      <c r="AG24" s="85">
+        <v>0.41023809500000002</v>
+      </c>
+      <c r="AH24" s="84">
+        <v>0.752222222</v>
+      </c>
+      <c r="AI24" s="85">
+        <v>0.52714285699999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
         <v>0</v>
       </c>
@@ -5366,7 +6350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="69"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
@@ -5390,7 +6374,7 @@
       </c>
       <c r="T26" s="74"/>
     </row>
-    <row r="27" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -5446,8 +6430,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -5469,7 +6453,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
         <v>35</v>
